--- a/biology/Botanique/Kernling/Kernling.xlsx
+++ b/biology/Botanique/Kernling/Kernling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le kernling B[N 1]  est un cépage blanc de cuve allemand, de création récente.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kernling  est une mutation du cépage kerner découverte par Ludwig Hochdörfer à Nussdorf dans le Palatinat. Le cépage fait partie de la liste des classements de cépages pour la production de vin suivant l’Article 20 du règlement (CE) no 1227/200.
 Le cépage est autorisé dans de nombreux Länder en Allemagne. Le cépage est faiblement multiplié et la superficie plantée est de 19 hectares en 2001.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc
 Feuilles adultes, à 3 lobes, un sinus pétiolaire en lyre fermée, à bords superposés.</t>
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque moyenne: 15   jours après  le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne à grosse. La grappe est cylindrique et compacte. Le cépage est de bonne vigueur et d’une productivité régulière.
 </t>
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">(Pas connus.)
 </t>
